--- a/pythonass.xlsx
+++ b/pythonass.xlsx
@@ -19,7 +19,7 @@
     <t>names</t>
   </si>
   <si>
-    <t>age</t>
+    <t>ages</t>
   </si>
   <si>
     <t>height</t>
@@ -28,19 +28,19 @@
     <t>scores</t>
   </si>
   <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Jude</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Kelvin</t>
-  </si>
-  <si>
-    <t>Prosper</t>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Joanne</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
   </si>
 </sst>
 </file>
@@ -424,13 +424,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -442,10 +442,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -472,10 +472,10 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
